--- a/projects/project_2/project2_data.xlsx
+++ b/projects/project_2/project2_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainz/github_repos/Intro-to-AI/projects/project_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4E93ED-CA39-7C4F-AC23-AC7F4834F561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA1121-2CEC-1A43-A98D-526DFD00A134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" xr2:uid="{991D603D-9FF6-9444-93B3-EBA4DC9B2AC1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19500" xr2:uid="{991D603D-9FF6-9444-93B3-EBA4DC9B2AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7632,15 +7632,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
+      <xdr:colOff>776817</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7667,16 +7667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7704,15 +7704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>414866</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>888999</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7740,15 +7740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>808567</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7777,16 +7777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>80433</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7816,15 +7816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>414866</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>888999</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8153,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39B000B-4372-D748-8F55-7FAA27A1D54F}">
   <dimension ref="A2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8707,6 +8707,7 @@
     <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>